--- a/biology/Médecine/Fluor_18/Fluor_18.xlsx
+++ b/biology/Médecine/Fluor_18/Fluor_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fluor 18, noté 18F, est l'isotope du fluor dont le nombre de masse est égal à 18 : son noyau atomique compte 9 protons et 9 neutrons avec un spin 1+ pour une masse atomique de 18,000 937 g/mol. Il est caractérisé par un excès de masse de 873 keV et une énergie de liaison nucléaire par nucléon de 7 631,6 keV[1]. Un gramme de fluor 18 présente une radioactivité de 3,52 × 1018 Bq avec des positons de 634 keV et des photons γ de 511 keV.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fluor 18, noté 18F, est l'isotope du fluor dont le nombre de masse est égal à 18 : son noyau atomique compte 9 protons et 9 neutrons avec un spin 1+ pour une masse atomique de 18,000 937 g/mol. Il est caractérisé par un excès de masse de 873 keV et une énergie de liaison nucléaire par nucléon de 7 631,6 keV. Un gramme de fluor 18 présente une radioactivité de 3,52 × 1018 Bq avec des positons de 634 keV et des photons γ de 511 keV.
 Sa désintégration radioactive donne de l'oxygène 18. Elle se fait dans 97 % des cas par désintégration β+ avec une énergie de désintégration de 633,5 keV et dans 3 % des cas par capture électronique, avec une énergie de désintégration de 1 655,5 keV. Sa période radioactive globale est de 109,77 minutes (un peu moins d'1 h 50 min).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Utilisation en médecine nucléaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Intégré dans une molécule de glucose où il remplace un groupe hydroxyle pour former du fluorodésoxyglucose (18F), noté 18F-FDG, le 18F est utilisé en médecine nucléaire pour l'imagerie par tomographie à émission de positon (TEP).
 			Molécule de 18F-FDG.
